--- a/tut05/output/0401ME30.xlsx
+++ b/tut05/output/0401ME30.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.244897959183673</v>
+        <v>9.24</v>
       </c>
       <c r="C6" t="n">
-        <v>7.977272727272728</v>
+        <v>7.98</v>
       </c>
       <c r="D6" t="n">
-        <v>9.170212765957446</v>
+        <v>9.17</v>
       </c>
       <c r="E6" t="n">
-        <v>9.387755102040817</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9.608695652173912</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9.652173913043478</v>
+        <v>9.65</v>
       </c>
       <c r="H6" t="n">
         <v>9.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.244897959183673</v>
+        <v>9.24</v>
       </c>
       <c r="C8" t="n">
-        <v>8.64516129032258</v>
+        <v>8.65</v>
       </c>
       <c r="D8" t="n">
-        <v>8.821428571428571</v>
+        <v>8.82</v>
       </c>
       <c r="E8" t="n">
-        <v>8.968253968253968</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>9.093617021276597</v>
+        <v>9.09</v>
       </c>
       <c r="G8" t="n">
-        <v>9.185053380782918</v>
+        <v>9.19</v>
       </c>
       <c r="H8" t="n">
-        <v>9.267912772585669</v>
+        <v>9.27</v>
       </c>
       <c r="I8" t="n">
-        <v>9.299168975069252</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
   </sheetData>
